--- a/DEWSapp/dewsdocs/DATAspeiSynoptic6.xlsx
+++ b/DEWSapp/dewsdocs/DATAspeiSynoptic6.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="990" yWindow="1545"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="990" yWindow="1545" windowWidth="11085" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,15 +49,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2687,6 +2687,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>